--- a/Data/incomes_detailed.xlsx
+++ b/Data/incomes_detailed.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiiyuoo\Senior\RPA\RPA_CreditCardApproval\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2390A8-0DE5-4C9B-BE04-3ABC22381031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="V8L3NDBL6OVLlxY4tGdGy/2HiRowUmDr0mjf/J2V048="/>
@@ -261,27 +270,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -291,11 +301,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -309,36 +325,40 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -528,24 +548,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="23.29"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,18 +578,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>3.330100732E10</v>
+        <v>33301007320</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -575,65 +597,65 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>1.3199334E7</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+        <v>13199334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>8.98542192E10</v>
+        <v>89854219200</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>1.8453918E7</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3.9667525772E10</v>
+        <v>39667525772</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>3.7E7</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>3.4153706524E10</v>
+        <v>34153706524</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>4.5E7</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>1.5446733779E10</v>
+        <v>15446733779</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>1.5E7</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>4.0261367986E10</v>
+        <v>40261367986</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>7407713.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>7407713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -641,131 +663,131 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>3.8E7</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>1.2646406653E10</v>
+        <v>12646406653</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>1.3E7</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>6.4845344238E10</v>
+        <v>64845344238</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>2.3275028E7</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>23275028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>5.1345661305E10</v>
+        <v>51345661305</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>4.8E7</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>3.7066501525E10</v>
+        <v>37066501525</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>1.1E7</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>2.789221941E10</v>
+        <v>27892219410</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>4.9E7</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>8.4738508014E10</v>
+        <v>84738508014</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>3.9E7</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>39000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>8.782117608E9</v>
+        <v>8782117608</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>1.3405339E7</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>13405339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>4.8355679594E10</v>
+        <v>48355679594</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>1.7370615E7</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>17370615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>8.2932002556E10</v>
+        <v>82932002556</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>4.5E7</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>4.7037347674E10</v>
+        <v>47037347674</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>3.0E7</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>9.6893291228E10</v>
+        <v>96893291228</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>5.1082571E7</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+        <v>51082571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -773,10 +795,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -784,21 +806,21 @@
         <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>6000000.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>3.7083944036E10</v>
+        <v>37083944036</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>3.3534298E7</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+        <v>33534298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -806,142 +828,142 @@
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>5.3898193078E10</v>
+        <v>53898193078</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>1.1E7</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>9.0063614776E10</v>
+        <v>90063614776</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>1.640991E7</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
+        <v>16409910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>8.5063726898E10</v>
+        <v>85063726898</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>2.4054849E7</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
+        <v>24054849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>4.0559081522E10</v>
+        <v>40559081522</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>4.2E7</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>1.2210876595E10</v>
+        <v>12210876595</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="3">
-        <v>2.6E7</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>2.4429733357E10</v>
+        <v>24429733357</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>3.7E7</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>8.7899565708E10</v>
+        <v>87899565708</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="3">
-        <v>2.5E7</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>6.1515586122E10</v>
+        <v>61515586122</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>6.313252481E9</v>
+        <v>6313252481</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>4.7E7</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
+        <v>47000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>4.5558448296E10</v>
+        <v>45558448296</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>4.9E7</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>9.9979619659E10</v>
+        <v>99979619659</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>6.1087951366E10</v>
+        <v>61087951366</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="3">
-        <v>3.6E7</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -949,54 +971,54 @@
         <v>9</v>
       </c>
       <c r="C37" s="3">
-        <v>4.3E7</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>7.8402791574E10</v>
+        <v>78402791574</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>6.9719061187E10</v>
+        <v>69719061187</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>1.7E7</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>3.5446681618E10</v>
+        <v>35446681618</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="3">
-        <v>3.1E7</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>7.8770819055E10</v>
+        <v>78770819055</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>2.6912651E7</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
+        <v>26912651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -1004,153 +1026,153 @@
         <v>10</v>
       </c>
       <c r="C42" s="3">
-        <v>3.3E7</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>5.9811927316E10</v>
+        <v>59811927316</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="3">
-        <v>2.2580321E7</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
+        <v>22580321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>4.5050638432E10</v>
+        <v>45050638432</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>8.4687235139E10</v>
+        <v>84687235139</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>4.3E7</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>4.4011455612E10</v>
+        <v>44011455612</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>2.5262294299E10</v>
+        <v>25262294299</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>4.5E7</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>1.7501276483E10</v>
+        <v>17501276483</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>2.0294401962E10</v>
+        <v>20294401962</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="3">
-        <v>9474414.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
+        <v>9474414</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>1.678031909E10</v>
+        <v>16780319090</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>4.112152E7</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
+        <v>41121520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>3.5209494461E10</v>
+        <v>35209494461</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="3">
-        <v>2.5229443E7</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
+        <v>25229443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>6.9775615753E10</v>
+        <v>69775615753</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="3">
-        <v>3.3E7</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>1.5528843845E10</v>
+        <v>15528843845</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="3">
-        <v>2.3085655E7</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
+        <v>23085655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>5.7877199017E10</v>
+        <v>57877199017</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="3">
-        <v>2.8E7</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>2.415068357E10</v>
+        <v>24150683570</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="3">
-        <v>4.4637013E7</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
+        <v>44637013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -1158,241 +1180,241 @@
         <v>11</v>
       </c>
       <c r="C56" s="3">
-        <v>7000000.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>7.7209571572E10</v>
+        <v>77209571572</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="3">
-        <v>2.8E7</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>4.1626617413E10</v>
+        <v>41626617413</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="3">
-        <v>3.4E7</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>5.1697119719E10</v>
+        <v>51697119719</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="3">
-        <v>1.0E7</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>3.8397596426E10</v>
+        <v>38397596426</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="3">
-        <v>4.5342265E7</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
+        <v>45342265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>7.6974919427E10</v>
+        <v>76974919427</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>3.0293578142E10</v>
+        <v>30293578142</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>4.6E7</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>3.1634544372E10</v>
+        <v>31634544372</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="3">
-        <v>3.4951092E7</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
+        <v>34951092</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <v>8.3885311186E10</v>
+        <v>83885311186</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="3">
-        <v>2.2200772E7</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
+        <v>22200772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>7.1496071069E10</v>
+        <v>71496071069</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="3">
-        <v>1.3E7</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>4.8528164297E10</v>
+        <v>48528164297</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="3">
-        <v>4.2E7</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>3.0000071661E10</v>
+        <v>30000071661</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>3.8E7</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>3.6757834313E10</v>
+        <v>36757834313</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="3">
-        <v>2.8E7</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>2.4578693432E10</v>
+        <v>24578693432</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="3">
-        <v>7000000.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>2.3977082124E10</v>
+        <v>23977082124</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>4.9E7</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>3.1988163369E10</v>
+        <v>31988163369</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="3">
-        <v>4.1E7</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
+        <v>41000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>9.2662256701E10</v>
+        <v>92662256701</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="3">
-        <v>7000000.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>4.2162297763E10</v>
+        <v>42162297763</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="3">
-        <v>3.0E7</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
-        <v>4.3863048545E10</v>
+        <v>43863048545</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="3">
-        <v>3.2656206E7</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
+        <v>32656206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>7.7095135778E10</v>
+        <v>77095135778</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="3">
-        <v>2.5E7</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>2.9098907224E10</v>
+        <v>29098907224</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="3">
-        <v>2.8E7</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>8.970596566E10</v>
+        <v>89705965660</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="3">
-        <v>2.8E7</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -1400,10 +1422,10 @@
         <v>12</v>
       </c>
       <c r="C78" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -1411,21 +1433,21 @@
         <v>13</v>
       </c>
       <c r="C79" s="3">
-        <v>9000000.0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>1.3100929457E10</v>
+        <v>13100929457</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="3">
-        <v>2.4141511E7</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
+        <v>24141511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -1433,10 +1455,10 @@
         <v>14</v>
       </c>
       <c r="C81" s="3">
-        <v>1.1E7</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
@@ -1444,43 +1466,43 @@
         <v>15</v>
       </c>
       <c r="C82" s="3">
-        <v>3.1E7</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <v>3.0659932568E10</v>
+        <v>30659932568</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="3">
-        <v>2.1E7</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <v>1.181882684E10</v>
+        <v>11818826840</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="3">
-        <v>3.6E7</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <v>6.1764920791E10</v>
+        <v>61764920791</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1488,32 +1510,32 @@
         <v>16</v>
       </c>
       <c r="C86" s="3">
-        <v>2.4187581E7</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
+        <v>24187581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>9.6503273939E10</v>
+        <v>96503273939</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="3">
-        <v>9000000.0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>2.1105222852E10</v>
+        <v>21105222852</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>1.9553084E7</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
+        <v>19553084</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -1521,54 +1543,54 @@
         <v>17</v>
       </c>
       <c r="C89" s="3">
-        <v>2.8351711E7</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
+        <v>28351711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>4.1435534888E10</v>
+        <v>41435534888</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <v>9.885658109E10</v>
+        <v>98856581090</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>3.4E7</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>3.451581543E9</v>
+        <v>3451581543</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C92" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>1.7589344448E10</v>
+        <v>17589344448</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="3">
-        <v>3.3E7</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
@@ -1576,120 +1598,120 @@
         <v>18</v>
       </c>
       <c r="C94" s="3">
-        <v>2.2E7</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>7.8120348893E10</v>
+        <v>78120348893</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="3">
-        <v>4.0E7</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>1.0521608396E10</v>
+        <v>10521608396</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="3">
-        <v>1.817821E7</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
+        <v>18178210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <v>8.6012894082E10</v>
+        <v>86012894082</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="3">
-        <v>5090364.0</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
+        <v>5090364</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
-        <v>8.8862982016E10</v>
+        <v>88862982016</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="3">
-        <v>4.5E7</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>8.4341716239E10</v>
+        <v>84341716239</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="3">
-        <v>2.3365735E7</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
+        <v>23365735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>6.3128732469E10</v>
+        <v>63128732469</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="3">
-        <v>4.9E7</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>2.716818845E10</v>
+        <v>27168188450</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>2.4888570482E10</v>
+        <v>24888570482</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>6.8800402684E10</v>
+        <v>68800402684</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C103" s="3">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>8.5144831968E10</v>
+        <v>85144831968</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C104" s="3">
-        <v>4.0E7</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
@@ -1697,32 +1719,32 @@
         <v>19</v>
       </c>
       <c r="C105" s="3">
-        <v>1.8E7</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>6.7662866855E10</v>
+        <v>67662866855</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <v>7.7464391381E10</v>
+        <v>77464391381</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C107" s="3">
-        <v>1.2779221E7</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
+        <v>12779221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
@@ -1730,87 +1752,87 @@
         <v>20</v>
       </c>
       <c r="C108" s="3">
-        <v>4.1E7</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
+        <v>41000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
-        <v>7.7392372978E10</v>
+        <v>77392372978</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C109" s="3">
-        <v>4.9E7</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
-        <v>6.5957367879E10</v>
+        <v>65957367879</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="3">
-        <v>1.9E7</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
-        <v>2.2178838205E10</v>
+        <v>22178838205</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="3">
-        <v>1.5E7</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
-        <v>8.8521852066E10</v>
+        <v>88521852066</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C112" s="3">
-        <v>1.3E7</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
-        <v>6.0959294842E10</v>
+        <v>60959294842</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C113" s="3">
-        <v>1.6443074E7</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
+        <v>16443074</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <v>1.8096635147E10</v>
+        <v>18096635147</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="3">
-        <v>3.6878726E7</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
+        <v>36878726</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
-        <v>6.8194044604E10</v>
+        <v>68194044604</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="3">
-        <v>1.8E7</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
@@ -1818,87 +1840,87 @@
         <v>21</v>
       </c>
       <c r="C116" s="3">
-        <v>4.1E7</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
+        <v>41000000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
-        <v>3.7852073548E10</v>
+        <v>37852073548</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="3">
-        <v>4.9E7</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
-        <v>4.8398957649E10</v>
+        <v>48398957649</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
-        <v>3.1331998784E10</v>
+        <v>31331998784</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>4.5E7</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
-        <v>6.1973065545E10</v>
+        <v>61973065545</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="3">
-        <v>1.5E7</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
-        <v>2.0290031362E10</v>
+        <v>20290031362</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="3">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
-        <v>5.7169695089E10</v>
+        <v>57169695089</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C122" s="3">
-        <v>9000000.0</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
-        <v>5.0351771405E10</v>
+        <v>50351771405</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="3">
-        <v>4.5689874E7</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
+        <v>45689874</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
@@ -1906,43 +1928,43 @@
         <v>22</v>
       </c>
       <c r="C124" s="3">
-        <v>1.9E7</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
-        <v>9.334273954E9</v>
+        <v>9334273954</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="3">
-        <v>2.8E7</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
-        <v>4.3399130804E10</v>
+        <v>43399130804</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C126" s="3">
-        <v>1.0E7</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
-        <v>7.0449977727E10</v>
+        <v>70449977727</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C127" s="3">
-        <v>1.8E7</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -1950,21 +1972,21 @@
         <v>23</v>
       </c>
       <c r="C128" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
-        <v>7.3556120816E10</v>
+        <v>73556120816</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="3">
-        <v>3.4E7</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
@@ -1972,54 +1994,54 @@
         <v>24</v>
       </c>
       <c r="C130" s="3">
-        <v>2.8E7</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
-        <v>5.6496320736E10</v>
+        <v>56496320736</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C131" s="3">
-        <v>2.5142275E7</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
+        <v>25142275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
-        <v>1.1501742987E10</v>
+        <v>11501742987</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C132" s="3">
-        <v>1.5E7</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
-        <v>7.4613989697E10</v>
+        <v>74613989697</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
-        <v>2.358669445E9</v>
+        <v>2358669445</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="3">
-        <v>3.5E7</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -2027,21 +2049,21 @@
         <v>25</v>
       </c>
       <c r="C135" s="3">
-        <v>4.3E7</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
-        <v>6.8760805347E10</v>
+        <v>68760805347</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C136" s="3">
-        <v>4.4539805E7</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
+        <v>44539805</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
@@ -2049,98 +2071,98 @@
         <v>26</v>
       </c>
       <c r="C137" s="3">
-        <v>3.4E7</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
-        <v>1.7905595727E10</v>
+        <v>17905595727</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C138" s="3">
-        <v>2.6088133E7</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
+        <v>26088133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
-        <v>5.219074525E9</v>
+        <v>5219074525</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="3">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
-        <v>3.7363309584E10</v>
+        <v>37363309584</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="3">
-        <v>3.6786045E7</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
+        <v>36786045</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
-        <v>4.141471868E9</v>
+        <v>4141471868</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C141" s="3">
-        <v>1.9E7</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
-        <v>5.9849648696E10</v>
+        <v>59849648696</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C142" s="3">
-        <v>2.5E7</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
-        <v>7.6596627769E10</v>
+        <v>76596627769</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C143" s="3">
-        <v>1.4E7</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
-        <v>8.8739939667E10</v>
+        <v>88739939667</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C144" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
-        <v>9.9452369881E10</v>
+        <v>99452369881</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C145" s="3">
-        <v>4.4223517E7</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
+        <v>44223517</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
@@ -2148,241 +2170,241 @@
         <v>27</v>
       </c>
       <c r="C146" s="3">
-        <v>4.2072862E7</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
+        <v>42072862</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
-        <v>9.9938206908E10</v>
+        <v>99938206908</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="3">
-        <v>2.1E7</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
-        <v>3.3321020127E10</v>
+        <v>33321020127</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="3">
-        <v>6000000.0</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
-        <v>5.461223855E10</v>
+        <v>54612238550</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C149" s="3">
-        <v>3.8E7</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
-        <v>5.5690896446E10</v>
+        <v>55690896446</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="3">
-        <v>3.0E7</v>
-      </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
-        <v>4.5151197563E10</v>
+        <v>45151197563</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="3">
-        <v>1.8E7</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
-        <v>1.0297509752E10</v>
+        <v>10297509752</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C152" s="3">
-        <v>6000000.0</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
-        <v>2.2817313101E10</v>
+        <v>22817313101</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C153" s="3">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
-        <v>6.4839415106E10</v>
+        <v>64839415106</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="3">
-        <v>4.4E7</v>
-      </c>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
-        <v>3.056484711E10</v>
+        <v>30564847110</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C155" s="3">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
-        <v>4.4098482245E10</v>
+        <v>44098482245</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="3">
-        <v>1.4E7</v>
-      </c>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
-        <v>9.5610128019E10</v>
+        <v>95610128019</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C157" s="3">
-        <v>1.5621788E7</v>
-      </c>
-    </row>
-    <row r="158" ht="14.25" customHeight="1">
+        <v>15621788</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
-        <v>4.2758658172E10</v>
+        <v>42758658172</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C158" s="3">
-        <v>3.5E7</v>
-      </c>
-    </row>
-    <row r="159" ht="14.25" customHeight="1">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
-        <v>6.0401320643E10</v>
+        <v>60401320643</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C159" s="3">
-        <v>1.4E7</v>
-      </c>
-    </row>
-    <row r="160" ht="14.25" customHeight="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
-        <v>5.0381650399E10</v>
+        <v>50381650399</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>3.4E7</v>
-      </c>
-    </row>
-    <row r="161" ht="14.25" customHeight="1">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
-        <v>5.5481258728E10</v>
+        <v>55481258728</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="3">
-        <v>4.3E7</v>
-      </c>
-    </row>
-    <row r="162" ht="14.25" customHeight="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
-        <v>9.6493473353E10</v>
+        <v>96493473353</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C162" s="3">
-        <v>1.4E7</v>
-      </c>
-    </row>
-    <row r="163" ht="14.25" customHeight="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
-        <v>6.8307376184E10</v>
+        <v>68307376184</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C163" s="3">
-        <v>2.9E7</v>
-      </c>
-    </row>
-    <row r="164" ht="14.25" customHeight="1">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
-        <v>1.3314063709E10</v>
+        <v>13314063709</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C164" s="3">
-        <v>7000000.0</v>
-      </c>
-    </row>
-    <row r="165" ht="14.25" customHeight="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
-        <v>3.9150925092E10</v>
+        <v>39150925092</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="3">
-        <v>2.9857604E7</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25" customHeight="1">
+        <v>29857604</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
-        <v>2.9256669803E10</v>
+        <v>29256669803</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="3">
-        <v>4.3E7</v>
-      </c>
-    </row>
-    <row r="167" ht="14.25" customHeight="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
-        <v>5.18687362E8</v>
+        <v>518687362</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C167" s="3">
-        <v>1.8031073E7</v>
-      </c>
-    </row>
-    <row r="168" ht="14.25" customHeight="1">
+        <v>18031073</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>3</v>
       </c>
@@ -2390,21 +2412,21 @@
         <v>28</v>
       </c>
       <c r="C168" s="3">
-        <v>3.9E7</v>
-      </c>
-    </row>
-    <row r="169" ht="14.25" customHeight="1">
+        <v>39000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
-        <v>5.9658782247E10</v>
+        <v>59658782247</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C169" s="3">
-        <v>4.3756124E7</v>
-      </c>
-    </row>
-    <row r="170" ht="14.25" customHeight="1">
+        <v>43756124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>3</v>
       </c>
@@ -2412,153 +2434,153 @@
         <v>29</v>
       </c>
       <c r="C170" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
-        <v>3.9030652134E10</v>
+        <v>39030652134</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C171" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
-        <v>7.0850261074E10</v>
+        <v>70850261074</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C172" s="3">
-        <v>2.5439297E7</v>
-      </c>
-    </row>
-    <row r="173" ht="14.25" customHeight="1">
+        <v>25439297</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
-        <v>2.5077165645E10</v>
+        <v>25077165645</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="3">
-        <v>3.3046416E7</v>
-      </c>
-    </row>
-    <row r="174" ht="14.25" customHeight="1">
+        <v>33046416</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
-        <v>5.9854998884E10</v>
+        <v>59854998884</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C174" s="3">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="175" ht="14.25" customHeight="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
-        <v>7.3530476744E10</v>
+        <v>73530476744</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C175" s="3">
-        <v>1.8E7</v>
-      </c>
-    </row>
-    <row r="176" ht="14.25" customHeight="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
-        <v>2.4928241487E10</v>
+        <v>24928241487</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C176" s="3">
-        <v>1.1685399E7</v>
-      </c>
-    </row>
-    <row r="177" ht="14.25" customHeight="1">
+        <v>11685399</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
-        <v>9.943230725E9</v>
+        <v>9943230725</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C177" s="3">
-        <v>2.2992996E7</v>
-      </c>
-    </row>
-    <row r="178" ht="14.25" customHeight="1">
+        <v>22992996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
-        <v>8.542168722E9</v>
+        <v>8542168722</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C178" s="3">
-        <v>4.7E7</v>
-      </c>
-    </row>
-    <row r="179" ht="14.25" customHeight="1">
+        <v>47000000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
-        <v>9.0463930058E10</v>
+        <v>90463930058</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C179" s="3">
-        <v>4.4927805E7</v>
-      </c>
-    </row>
-    <row r="180" ht="14.25" customHeight="1">
+        <v>44927805</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
-        <v>1.4609031878E10</v>
+        <v>14609031878</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C180" s="3">
-        <v>4.4E7</v>
-      </c>
-    </row>
-    <row r="181" ht="14.25" customHeight="1">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
-        <v>7.3711225146E10</v>
+        <v>73711225146</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="3">
-        <v>4.7E7</v>
-      </c>
-    </row>
-    <row r="182" ht="14.25" customHeight="1">
+        <v>47000000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
-        <v>2.0259754336E10</v>
+        <v>20259754336</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C182" s="3">
-        <v>1.2113468E7</v>
-      </c>
-    </row>
-    <row r="183" ht="14.25" customHeight="1">
+        <v>12113468</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
-        <v>5.5824829322E10</v>
+        <v>55824829322</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="3">
-        <v>2.5464064E7</v>
-      </c>
-    </row>
-    <row r="184" ht="14.25" customHeight="1">
+        <v>25464064</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
@@ -2566,21 +2588,21 @@
         <v>30</v>
       </c>
       <c r="C184" s="3">
-        <v>1.8E7</v>
-      </c>
-    </row>
-    <row r="185" ht="14.25" customHeight="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
-        <v>7.5916188493E10</v>
+        <v>75916188493</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C185" s="3">
-        <v>7000000.0</v>
-      </c>
-    </row>
-    <row r="186" ht="14.25" customHeight="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,65 +2610,65 @@
         <v>31</v>
       </c>
       <c r="C186" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="187" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
-        <v>6.4643067074E10</v>
+        <v>64643067074</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C187" s="3">
-        <v>3.3E7</v>
-      </c>
-    </row>
-    <row r="188" ht="14.25" customHeight="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
-        <v>6.9810684182E10</v>
+        <v>69810684182</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C188" s="3">
-        <v>4.2E7</v>
-      </c>
-    </row>
-    <row r="189" ht="14.25" customHeight="1">
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
-        <v>2.4723639127E10</v>
+        <v>24723639127</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C189" s="3">
-        <v>4.1E7</v>
-      </c>
-    </row>
-    <row r="190" ht="14.25" customHeight="1">
+        <v>41000000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
-        <v>4.8686230921E10</v>
+        <v>48686230921</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C190" s="3">
-        <v>3.5E7</v>
-      </c>
-    </row>
-    <row r="191" ht="14.25" customHeight="1">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
-        <v>9.1189187156E10</v>
+        <v>91189187156</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C191" s="3">
-        <v>4.2244445E7</v>
-      </c>
-    </row>
-    <row r="192" ht="14.25" customHeight="1">
+        <v>42244445</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>3</v>
       </c>
@@ -2654,32 +2676,32 @@
         <v>32</v>
       </c>
       <c r="C192" s="3">
-        <v>4.5189942E7</v>
-      </c>
-    </row>
-    <row r="193" ht="14.25" customHeight="1">
+        <v>45189942</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
-        <v>9.7483039402E10</v>
+        <v>97483039402</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C193" s="3">
-        <v>1.1E7</v>
-      </c>
-    </row>
-    <row r="194" ht="14.25" customHeight="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
-        <v>7.0223656181E10</v>
+        <v>70223656181</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C194" s="3">
-        <v>6000000.0</v>
-      </c>
-    </row>
-    <row r="195" ht="14.25" customHeight="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>3</v>
       </c>
@@ -2687,54 +2709,54 @@
         <v>33</v>
       </c>
       <c r="C195" s="3">
-        <v>1.9529458E7</v>
-      </c>
-    </row>
-    <row r="196" ht="14.25" customHeight="1">
+        <v>19529458</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
-        <v>6.3156567726E10</v>
+        <v>63156567726</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C196" s="3">
-        <v>2.2448916E7</v>
-      </c>
-    </row>
-    <row r="197" ht="14.25" customHeight="1">
+        <v>22448916</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
-        <v>8.1080944087E10</v>
+        <v>81080944087</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C197" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="198" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
-        <v>7.4182901446E10</v>
+        <v>74182901446</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C198" s="3">
-        <v>5.2083197E7</v>
-      </c>
-    </row>
-    <row r="199" ht="14.25" customHeight="1">
+        <v>52083197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
-        <v>8.2984540236E10</v>
+        <v>82984540236</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C199" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="200" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>3</v>
       </c>
@@ -2742,153 +2764,153 @@
         <v>34</v>
       </c>
       <c r="C200" s="3">
-        <v>1.6185865E7</v>
-      </c>
-    </row>
-    <row r="201" ht="14.25" customHeight="1">
+        <v>16185865</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
-        <v>3.9677913753E10</v>
+        <v>39677913753</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C201" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="202" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
-        <v>2.046045197E10</v>
+        <v>20460451970</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C202" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="203" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
-        <v>4.1654583761E10</v>
+        <v>41654583761</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C203" s="3">
-        <v>5017301.0</v>
-      </c>
-    </row>
-    <row r="204" ht="14.25" customHeight="1">
+        <v>5017301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
-        <v>3.9783536099E10</v>
+        <v>39783536099</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C204" s="3">
-        <v>1.6931053E7</v>
-      </c>
-    </row>
-    <row r="205" ht="14.25" customHeight="1">
+        <v>16931053</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
-        <v>6.3201236782E10</v>
+        <v>63201236782</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C205" s="3">
-        <v>2.9E7</v>
-      </c>
-    </row>
-    <row r="206" ht="14.25" customHeight="1">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
-        <v>2.1704848756E10</v>
+        <v>21704848756</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="3">
-        <v>4.3E7</v>
-      </c>
-    </row>
-    <row r="207" ht="14.25" customHeight="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
-        <v>6.7749080029E10</v>
+        <v>67749080029</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="3">
-        <v>1.6103562E7</v>
-      </c>
-    </row>
-    <row r="208" ht="14.25" customHeight="1">
+        <v>16103562</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
-        <v>6.2889992005E10</v>
+        <v>62889992005</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C208" s="3">
-        <v>1.8188731E7</v>
-      </c>
-    </row>
-    <row r="209" ht="14.25" customHeight="1">
+        <v>18188731</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
-        <v>8.0233514671E10</v>
+        <v>80233514671</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="210" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
-        <v>8.6504103181E10</v>
+        <v>86504103181</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C210" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="211" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
-        <v>2.4787848675E10</v>
+        <v>24787848675</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C211" s="3">
-        <v>2.1E7</v>
-      </c>
-    </row>
-    <row r="212" ht="14.25" customHeight="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
-        <v>2.7851839324E10</v>
+        <v>27851839324</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C212" s="3">
-        <v>3.1599395E7</v>
-      </c>
-    </row>
-    <row r="213" ht="14.25" customHeight="1">
+        <v>31599395</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
-        <v>1.8983644246E10</v>
+        <v>18983644246</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C213" s="3">
-        <v>1.4E7</v>
-      </c>
-    </row>
-    <row r="214" ht="14.25" customHeight="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>3</v>
       </c>
@@ -2896,21 +2918,21 @@
         <v>35</v>
       </c>
       <c r="C214" s="3">
-        <v>3.3E7</v>
-      </c>
-    </row>
-    <row r="215" ht="14.25" customHeight="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
-        <v>4.5496893548E10</v>
+        <v>45496893548</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C215" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="216" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>3</v>
       </c>
@@ -2918,54 +2940,54 @@
         <v>36</v>
       </c>
       <c r="C216" s="3">
-        <v>2.9E7</v>
-      </c>
-    </row>
-    <row r="217" ht="14.25" customHeight="1">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
-        <v>8.756393441E9</v>
+        <v>8756393441</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C217" s="3">
-        <v>3.6E7</v>
-      </c>
-    </row>
-    <row r="218" ht="14.25" customHeight="1">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
-        <v>6.8770023992E10</v>
+        <v>68770023992</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C218" s="3">
-        <v>2.1E7</v>
-      </c>
-    </row>
-    <row r="219" ht="14.25" customHeight="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
-        <v>1.8665297423E10</v>
+        <v>18665297423</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="3">
-        <v>1.3945982E7</v>
-      </c>
-    </row>
-    <row r="220" ht="14.25" customHeight="1">
+        <v>13945982</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
-        <v>2.1154365348E10</v>
+        <v>21154365348</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C220" s="3">
-        <v>2.2E7</v>
-      </c>
-    </row>
-    <row r="221" ht="14.25" customHeight="1">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>3</v>
       </c>
@@ -2973,10 +2995,10 @@
         <v>37</v>
       </c>
       <c r="C221" s="3">
-        <v>6000000.0</v>
-      </c>
-    </row>
-    <row r="222" ht="14.25" customHeight="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>3</v>
       </c>
@@ -2984,65 +3006,65 @@
         <v>38</v>
       </c>
       <c r="C222" s="3">
-        <v>3.3E7</v>
-      </c>
-    </row>
-    <row r="223" ht="14.25" customHeight="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
-        <v>4.8754606322E10</v>
+        <v>48754606322</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C223" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="224" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
-        <v>9.8766460322E10</v>
+        <v>98766460322</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C224" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="225" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
-        <v>9.0356141972E10</v>
+        <v>90356141972</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C225" s="3">
-        <v>1.1987411E7</v>
-      </c>
-    </row>
-    <row r="226" ht="14.25" customHeight="1">
+        <v>11987411</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
-        <v>3.410228449E10</v>
+        <v>34102284490</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C226" s="3">
-        <v>4.6138155E7</v>
-      </c>
-    </row>
-    <row r="227" ht="14.25" customHeight="1">
+        <v>46138155</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
-        <v>9.8593190099E10</v>
+        <v>98593190099</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C227" s="3">
-        <v>3.4E7</v>
-      </c>
-    </row>
-    <row r="228" ht="14.25" customHeight="1">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>3</v>
       </c>
@@ -3050,76 +3072,76 @@
         <v>39</v>
       </c>
       <c r="C228" s="3">
-        <v>2.4678785E7</v>
-      </c>
-    </row>
-    <row r="229" ht="14.25" customHeight="1">
+        <v>24678785</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
-        <v>9.0367070667E10</v>
+        <v>90367070667</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C229" s="3">
-        <v>3.2E7</v>
-      </c>
-    </row>
-    <row r="230" ht="14.25" customHeight="1">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
-        <v>8.6642961349E10</v>
+        <v>86642961349</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C230" s="3">
-        <v>3.2E7</v>
-      </c>
-    </row>
-    <row r="231" ht="14.25" customHeight="1">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
-        <v>3.4306496239E10</v>
+        <v>34306496239</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C231" s="3">
-        <v>1.3E7</v>
-      </c>
-    </row>
-    <row r="232" ht="14.25" customHeight="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
-        <v>6.9198311009E10</v>
+        <v>69198311009</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C232" s="3">
-        <v>6000000.0</v>
-      </c>
-    </row>
-    <row r="233" ht="14.25" customHeight="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
-        <v>4.3079752287E10</v>
+        <v>43079752287</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C233" s="3">
-        <v>4.3E7</v>
-      </c>
-    </row>
-    <row r="234" ht="14.25" customHeight="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
-        <v>8.5109300772E10</v>
+        <v>85109300772</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C234" s="3">
-        <v>3.6E7</v>
-      </c>
-    </row>
-    <row r="235" ht="14.25" customHeight="1">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>3</v>
       </c>
@@ -3127,32 +3149,32 @@
         <v>40</v>
       </c>
       <c r="C235" s="3">
-        <v>1.0E7</v>
-      </c>
-    </row>
-    <row r="236" ht="14.25" customHeight="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
-        <v>3.235406364E10</v>
+        <v>32354063640</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C236" s="3">
-        <v>9000000.0</v>
-      </c>
-    </row>
-    <row r="237" ht="14.25" customHeight="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
-        <v>1.9742530011E10</v>
+        <v>19742530011</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C237" s="3">
-        <v>2.2E7</v>
-      </c>
-    </row>
-    <row r="238" ht="14.25" customHeight="1">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>3</v>
       </c>
@@ -3160,43 +3182,43 @@
         <v>41</v>
       </c>
       <c r="C238" s="3">
-        <v>2.7669822E7</v>
-      </c>
-    </row>
-    <row r="239" ht="14.25" customHeight="1">
+        <v>27669822</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
-        <v>3.3949755799E10</v>
+        <v>33949755799</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C239" s="3">
-        <v>6000000.0</v>
-      </c>
-    </row>
-    <row r="240" ht="14.25" customHeight="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
-        <v>9.1321667469E10</v>
+        <v>91321667469</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C240" s="3">
-        <v>1.3006659E7</v>
-      </c>
-    </row>
-    <row r="241" ht="14.25" customHeight="1">
+        <v>13006659</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
-        <v>1.8348680442E10</v>
+        <v>18348680442</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C241" s="3">
-        <v>2.2E7</v>
-      </c>
-    </row>
-    <row r="242" ht="14.25" customHeight="1">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>3</v>
       </c>
@@ -3204,10 +3226,10 @@
         <v>42</v>
       </c>
       <c r="C242" s="3">
-        <v>3.2E7</v>
-      </c>
-    </row>
-    <row r="243" ht="14.25" customHeight="1">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>3</v>
       </c>
@@ -3215,252 +3237,252 @@
         <v>43</v>
       </c>
       <c r="C243" s="3">
-        <v>1.0418819E7</v>
-      </c>
-    </row>
-    <row r="244" ht="14.25" customHeight="1">
+        <v>10418819</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
-        <v>9.1489494139E10</v>
+        <v>91489494139</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C244" s="3">
-        <v>2.9E7</v>
-      </c>
-    </row>
-    <row r="245" ht="14.25" customHeight="1">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
-        <v>7.7019526497E10</v>
+        <v>77019526497</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C245" s="3">
-        <v>2.2E7</v>
-      </c>
-    </row>
-    <row r="246" ht="14.25" customHeight="1">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
-        <v>9.271253496E9</v>
+        <v>9271253496</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C246" s="3">
-        <v>1.1E7</v>
-      </c>
-    </row>
-    <row r="247" ht="14.25" customHeight="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
-        <v>5.2606482426E10</v>
+        <v>52606482426</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C247" s="3">
-        <v>2.9E7</v>
-      </c>
-    </row>
-    <row r="248" ht="14.25" customHeight="1">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
-        <v>4.5326065288E10</v>
+        <v>45326065288</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C248" s="3">
-        <v>1.3212797E7</v>
-      </c>
-    </row>
-    <row r="249" ht="14.25" customHeight="1">
+        <v>13212797</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
-        <v>7.7568968432E10</v>
+        <v>77568968432</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C249" s="3">
-        <v>2.6E7</v>
-      </c>
-    </row>
-    <row r="250" ht="14.25" customHeight="1">
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
-        <v>3.4860215178E10</v>
+        <v>34860215178</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C250" s="3">
-        <v>4.3E7</v>
-      </c>
-    </row>
-    <row r="251" ht="14.25" customHeight="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
-        <v>8.7667995343E10</v>
+        <v>87667995343</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="3">
-        <v>3.8E7</v>
-      </c>
-    </row>
-    <row r="252" ht="14.25" customHeight="1">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
-        <v>3.48559405E9</v>
+        <v>3485594050</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C252" s="3">
-        <v>1.791038E7</v>
-      </c>
-    </row>
-    <row r="253" ht="14.25" customHeight="1">
+        <v>17910380</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
-        <v>5.2285025852E10</v>
+        <v>52285025852</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C253" s="3">
-        <v>5.3477303E7</v>
-      </c>
-    </row>
-    <row r="254" ht="14.25" customHeight="1">
+        <v>53477303</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
-        <v>5.026314389E9</v>
+        <v>5026314389</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C254" s="3">
-        <v>2.5563912E7</v>
-      </c>
-    </row>
-    <row r="255" ht="14.25" customHeight="1">
+        <v>25563912</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
-        <v>5.6895381761E10</v>
+        <v>56895381761</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C255" s="3">
-        <v>3.4E7</v>
-      </c>
-    </row>
-    <row r="256" ht="14.25" customHeight="1">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
-        <v>8.830018996E10</v>
+        <v>88300189960</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C256" s="3">
-        <v>6184362.0</v>
-      </c>
-    </row>
-    <row r="257" ht="14.25" customHeight="1">
+        <v>6184362</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
-        <v>8.4983697619E10</v>
+        <v>84983697619</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C257" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="258" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
-        <v>4.4885818988E10</v>
+        <v>44885818988</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C258" s="3">
-        <v>2.1E7</v>
-      </c>
-    </row>
-    <row r="259" ht="14.25" customHeight="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
-        <v>2.7414507746E10</v>
+        <v>27414507746</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C259" s="3">
-        <v>7000000.0</v>
-      </c>
-    </row>
-    <row r="260" ht="14.25" customHeight="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
-        <v>6.852980034E9</v>
+        <v>6852980034</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C260" s="3">
-        <v>2.9090622E7</v>
-      </c>
-    </row>
-    <row r="261" ht="14.25" customHeight="1">
+        <v>29090622</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
-        <v>9.2706788001E10</v>
+        <v>92706788001</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C261" s="3">
-        <v>3.576854E7</v>
-      </c>
-    </row>
-    <row r="262" ht="14.25" customHeight="1">
+        <v>35768540</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
-        <v>5.4476126854E10</v>
+        <v>54476126854</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C262" s="3">
-        <v>2.5E7</v>
-      </c>
-    </row>
-    <row r="263" ht="14.25" customHeight="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
-        <v>8.8276071461E10</v>
+        <v>88276071461</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C263" s="3">
-        <v>2.5987143E7</v>
-      </c>
-    </row>
-    <row r="264" ht="14.25" customHeight="1">
+        <v>25987143</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
-        <v>3.6915675865E10</v>
+        <v>36915675865</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C264" s="3">
-        <v>3.1E7</v>
-      </c>
-    </row>
-    <row r="265" ht="14.25" customHeight="1">
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
-        <v>3.6227998557E10</v>
+        <v>36227998557</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C265" s="3">
-        <v>2.3E7</v>
-      </c>
-    </row>
-    <row r="266" ht="14.25" customHeight="1">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>3</v>
       </c>
@@ -3468,43 +3490,43 @@
         <v>44</v>
       </c>
       <c r="C266" s="3">
-        <v>4.8E7</v>
-      </c>
-    </row>
-    <row r="267" ht="14.25" customHeight="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
-        <v>8.4308832233E10</v>
+        <v>84308832233</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C267" s="3">
-        <v>1.8005113E7</v>
-      </c>
-    </row>
-    <row r="268" ht="14.25" customHeight="1">
+        <v>18005113</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
-        <v>3.6898180978E10</v>
+        <v>36898180978</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C268" s="3">
-        <v>4.8E7</v>
-      </c>
-    </row>
-    <row r="269" ht="14.25" customHeight="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
-        <v>3.9278841689E10</v>
+        <v>39278841689</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C269" s="3">
-        <v>2.9572631E7</v>
-      </c>
-    </row>
-    <row r="270" ht="14.25" customHeight="1">
+        <v>29572631</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>3</v>
       </c>
@@ -3512,43 +3534,43 @@
         <v>45</v>
       </c>
       <c r="C270" s="3">
-        <v>1.1E7</v>
-      </c>
-    </row>
-    <row r="271" ht="14.25" customHeight="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
-        <v>4.7464887938E10</v>
+        <v>47464887938</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C271" s="3">
-        <v>4.4E7</v>
-      </c>
-    </row>
-    <row r="272" ht="14.25" customHeight="1">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
-        <v>5.8474188685E10</v>
+        <v>58474188685</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C272" s="3">
-        <v>3.7E7</v>
-      </c>
-    </row>
-    <row r="273" ht="14.25" customHeight="1">
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
-        <v>6.1321298593E10</v>
+        <v>61321298593</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C273" s="3">
-        <v>1.4E7</v>
-      </c>
-    </row>
-    <row r="274" ht="14.25" customHeight="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>3</v>
       </c>
@@ -3556,21 +3578,21 @@
         <v>46</v>
       </c>
       <c r="C274" s="3">
-        <v>1.0E7</v>
-      </c>
-    </row>
-    <row r="275" ht="14.25" customHeight="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
-        <v>6.7823782708E10</v>
+        <v>67823782708</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C275" s="3">
-        <v>4.4522748E7</v>
-      </c>
-    </row>
-    <row r="276" ht="14.25" customHeight="1">
+        <v>44522748</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>3</v>
       </c>
@@ -3578,76 +3600,76 @@
         <v>47</v>
       </c>
       <c r="C276" s="3">
-        <v>2.5E7</v>
-      </c>
-    </row>
-    <row r="277" ht="14.25" customHeight="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
-        <v>6.8961524811E10</v>
+        <v>68961524811</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C277" s="3">
-        <v>5269425.0</v>
-      </c>
-    </row>
-    <row r="278" ht="14.25" customHeight="1">
+        <v>5269425</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
-        <v>6.1928839325E10</v>
+        <v>61928839325</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C278" s="3">
-        <v>4.4E7</v>
-      </c>
-    </row>
-    <row r="279" ht="14.25" customHeight="1">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
-        <v>5.7219024047E10</v>
+        <v>57219024047</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C279" s="3">
-        <v>1.4E7</v>
-      </c>
-    </row>
-    <row r="280" ht="14.25" customHeight="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
-        <v>9.8540287665E10</v>
+        <v>98540287665</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C280" s="3">
-        <v>4.8E7</v>
-      </c>
-    </row>
-    <row r="281" ht="14.25" customHeight="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
-        <v>9.4285666253E10</v>
+        <v>94285666253</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C281" s="3">
-        <v>9000000.0</v>
-      </c>
-    </row>
-    <row r="282" ht="14.25" customHeight="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
-        <v>5.0848387471E10</v>
+        <v>50848387471</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C282" s="3">
-        <v>1.7772506E7</v>
-      </c>
-    </row>
-    <row r="283" ht="14.25" customHeight="1">
+        <v>17772506</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>3</v>
       </c>
@@ -3655,10 +3677,10 @@
         <v>48</v>
       </c>
       <c r="C283" s="3">
-        <v>2.8935493E7</v>
-      </c>
-    </row>
-    <row r="284" ht="14.25" customHeight="1">
+        <v>28935493</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
@@ -3666,21 +3688,21 @@
         <v>49</v>
       </c>
       <c r="C284" s="3">
-        <v>3.8E7</v>
-      </c>
-    </row>
-    <row r="285" ht="14.25" customHeight="1">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
-        <v>5.2254445441E10</v>
+        <v>52254445441</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C285" s="3">
-        <v>1.7599488E7</v>
-      </c>
-    </row>
-    <row r="286" ht="14.25" customHeight="1">
+        <v>17599488</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>3</v>
       </c>
@@ -3688,43 +3710,43 @@
         <v>50</v>
       </c>
       <c r="C286" s="3">
-        <v>1.0967622E7</v>
-      </c>
-    </row>
-    <row r="287" ht="14.25" customHeight="1">
+        <v>10967622</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
-        <v>3.6377570889E10</v>
+        <v>36377570889</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C287" s="3">
-        <v>4.5E7</v>
-      </c>
-    </row>
-    <row r="288" ht="14.25" customHeight="1">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
-        <v>5.9662168649E10</v>
+        <v>59662168649</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C288" s="3">
-        <v>3.0142331E7</v>
-      </c>
-    </row>
-    <row r="289" ht="14.25" customHeight="1">
+        <v>30142331</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
-        <v>6.5067986051E10</v>
+        <v>65067986051</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C289" s="3">
-        <v>3.4032264E7</v>
-      </c>
-    </row>
-    <row r="290" ht="14.25" customHeight="1">
+        <v>34032264</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>3</v>
       </c>
@@ -3732,175 +3754,175 @@
         <v>51</v>
       </c>
       <c r="C290" s="3">
-        <v>3.6E7</v>
-      </c>
-    </row>
-    <row r="291" ht="14.25" customHeight="1">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
-        <v>6.5343747458E10</v>
+        <v>65343747458</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C291" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="292" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
-        <v>2.6500655075E10</v>
+        <v>26500655075</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C292" s="3">
-        <v>1.1343988E7</v>
-      </c>
-    </row>
-    <row r="293" ht="14.25" customHeight="1">
+        <v>11343988</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
-        <v>3.2674097076E10</v>
+        <v>32674097076</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C293" s="3">
-        <v>4.1E7</v>
-      </c>
-    </row>
-    <row r="294" ht="14.25" customHeight="1">
+        <v>41000000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
-        <v>3.4280041113E10</v>
+        <v>34280041113</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C294" s="3">
-        <v>4.0E7</v>
-      </c>
-    </row>
-    <row r="295" ht="14.25" customHeight="1">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
-        <v>8.925532595E9</v>
+        <v>8925532595</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C295" s="3">
-        <v>4.6E7</v>
-      </c>
-    </row>
-    <row r="296" ht="14.25" customHeight="1">
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
-        <v>3.2153714809E10</v>
+        <v>32153714809</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C296" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="297" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
-        <v>3.1949003604E10</v>
+        <v>31949003604</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C297" s="3">
-        <v>2.9229842E7</v>
-      </c>
-    </row>
-    <row r="298" ht="14.25" customHeight="1">
+        <v>29229842</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
-        <v>9.5129074987E10</v>
+        <v>95129074987</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C298" s="3">
-        <v>9000000.0</v>
-      </c>
-    </row>
-    <row r="299" ht="14.25" customHeight="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
-        <v>6.9660730395E10</v>
+        <v>69660730395</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C299" s="3">
-        <v>3.1E7</v>
-      </c>
-    </row>
-    <row r="300" ht="14.25" customHeight="1">
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
-        <v>6.807702706E9</v>
+        <v>6807702706</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C300" s="3">
-        <v>2.9E7</v>
-      </c>
-    </row>
-    <row r="301" ht="14.25" customHeight="1">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
-        <v>5.5997564172E10</v>
+        <v>55997564172</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C301" s="3">
-        <v>4.2E7</v>
-      </c>
-    </row>
-    <row r="302" ht="14.25" customHeight="1">
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
-        <v>3.3800267809E10</v>
+        <v>33800267809</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C302" s="3">
-        <v>4.1E7</v>
-      </c>
-    </row>
-    <row r="303" ht="14.25" customHeight="1">
+        <v>41000000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
-        <v>3.8306257666E10</v>
+        <v>38306257666</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C303" s="3">
-        <v>4.8812063E7</v>
-      </c>
-    </row>
-    <row r="304" ht="14.25" customHeight="1">
+        <v>48812063</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
-        <v>7.0040943516E10</v>
+        <v>70040943516</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C304" s="3">
-        <v>4.6E7</v>
-      </c>
-    </row>
-    <row r="305" ht="14.25" customHeight="1">
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
-        <v>5.4654563314E10</v>
+        <v>54654563314</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C305" s="3">
-        <v>9000000.0</v>
-      </c>
-    </row>
-    <row r="306" ht="14.25" customHeight="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>3</v>
       </c>
@@ -3908,21 +3930,21 @@
         <v>52</v>
       </c>
       <c r="C306" s="3">
-        <v>2.1E7</v>
-      </c>
-    </row>
-    <row r="307" ht="14.25" customHeight="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
-        <v>2.2483844884E10</v>
+        <v>22483844884</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C307" s="3">
-        <v>1.5796448E7</v>
-      </c>
-    </row>
-    <row r="308" ht="14.25" customHeight="1">
+        <v>15796448</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>3</v>
       </c>
@@ -3930,120 +3952,120 @@
         <v>53</v>
       </c>
       <c r="C308" s="3">
-        <v>3.3E7</v>
-      </c>
-    </row>
-    <row r="309" ht="14.25" customHeight="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
-        <v>8.0947678386E10</v>
+        <v>80947678386</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C309" s="3">
-        <v>3.2E7</v>
-      </c>
-    </row>
-    <row r="310" ht="14.25" customHeight="1">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
-        <v>5.4086045924E10</v>
+        <v>54086045924</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C310" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="311" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
-        <v>2.350378082E10</v>
+        <v>23503780820</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C311" s="3">
-        <v>4.6E7</v>
-      </c>
-    </row>
-    <row r="312" ht="14.25" customHeight="1">
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
-        <v>7.1110112982E10</v>
+        <v>71110112982</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C312" s="3">
-        <v>3.7E7</v>
-      </c>
-    </row>
-    <row r="313" ht="14.25" customHeight="1">
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
-        <v>2.523745896E10</v>
+        <v>25237458960</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C313" s="3">
-        <v>4.1958333E7</v>
-      </c>
-    </row>
-    <row r="314" ht="14.25" customHeight="1">
+        <v>41958333</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
-        <v>7.121908667E10</v>
+        <v>71219086670</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C314" s="3">
-        <v>1.3162145E7</v>
-      </c>
-    </row>
-    <row r="315" ht="14.25" customHeight="1">
+        <v>13162145</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
-        <v>4.9841905751E10</v>
+        <v>49841905751</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C315" s="3">
-        <v>4.7E7</v>
-      </c>
-    </row>
-    <row r="316" ht="14.25" customHeight="1">
+        <v>47000000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
-        <v>2.4163630989E10</v>
+        <v>24163630989</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C316" s="3">
-        <v>2.3E7</v>
-      </c>
-    </row>
-    <row r="317" ht="14.25" customHeight="1">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
-        <v>3.0431465013E10</v>
+        <v>30431465013</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C317" s="3">
-        <v>2.6977066E7</v>
-      </c>
-    </row>
-    <row r="318" ht="14.25" customHeight="1">
+        <v>26977066</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
-        <v>5.5137917909E10</v>
+        <v>55137917909</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C318" s="3">
-        <v>2.8E7</v>
-      </c>
-    </row>
-    <row r="319" ht="14.25" customHeight="1">
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>3</v>
       </c>
@@ -4051,32 +4073,32 @@
         <v>54</v>
       </c>
       <c r="C319" s="3">
-        <v>4.7007062E7</v>
-      </c>
-    </row>
-    <row r="320" ht="14.25" customHeight="1">
+        <v>47007062</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
-        <v>8.8389693128E10</v>
+        <v>88389693128</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C320" s="3">
-        <v>4921568.0</v>
-      </c>
-    </row>
-    <row r="321" ht="14.25" customHeight="1">
+        <v>4921568</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
-        <v>7.6644397901E10</v>
+        <v>76644397901</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C321" s="3">
-        <v>3.1E7</v>
-      </c>
-    </row>
-    <row r="322" ht="14.25" customHeight="1">
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>3</v>
       </c>
@@ -4084,43 +4106,43 @@
         <v>55</v>
       </c>
       <c r="C322" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="323" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
-        <v>3.4348961936E10</v>
+        <v>34348961936</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C323" s="3">
-        <v>3.3986458E7</v>
-      </c>
-    </row>
-    <row r="324" ht="14.25" customHeight="1">
+        <v>33986458</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
-        <v>7.1041521879E10</v>
+        <v>71041521879</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C324" s="3">
-        <v>4.0E7</v>
-      </c>
-    </row>
-    <row r="325" ht="14.25" customHeight="1">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
-        <v>1.9795797167E10</v>
+        <v>19795797167</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C325" s="3">
-        <v>2.4E7</v>
-      </c>
-    </row>
-    <row r="326" ht="14.25" customHeight="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>3</v>
       </c>
@@ -4128,120 +4150,120 @@
         <v>56</v>
       </c>
       <c r="C326" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="327" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
-        <v>4.6788191116E10</v>
+        <v>46788191116</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C327" s="3">
-        <v>5.3482115E7</v>
-      </c>
-    </row>
-    <row r="328" ht="14.25" customHeight="1">
+        <v>53482115</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
-        <v>1.1558024315E10</v>
+        <v>11558024315</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C328" s="3">
-        <v>4.0E7</v>
-      </c>
-    </row>
-    <row r="329" ht="14.25" customHeight="1">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
-        <v>4.1395220335E10</v>
+        <v>41395220335</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C329" s="3">
-        <v>7000000.0</v>
-      </c>
-    </row>
-    <row r="330" ht="14.25" customHeight="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
-        <v>3.767236341E10</v>
+        <v>37672363410</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C330" s="3">
-        <v>4.4E7</v>
-      </c>
-    </row>
-    <row r="331" ht="14.25" customHeight="1">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
-        <v>7.6413761657E10</v>
+        <v>76413761657</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C331" s="3">
-        <v>1.8E7</v>
-      </c>
-    </row>
-    <row r="332" ht="14.25" customHeight="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
-        <v>6.884902654E10</v>
+        <v>68849026540</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C332" s="3">
-        <v>3.3E7</v>
-      </c>
-    </row>
-    <row r="333" ht="14.25" customHeight="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
-        <v>3.6585910737E10</v>
+        <v>36585910737</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C333" s="3">
-        <v>4.5E7</v>
-      </c>
-    </row>
-    <row r="334" ht="14.25" customHeight="1">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
-        <v>8.7699473422E10</v>
+        <v>87699473422</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C334" s="3">
-        <v>3.2E7</v>
-      </c>
-    </row>
-    <row r="335" ht="14.25" customHeight="1">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
-        <v>5.7711854043E10</v>
+        <v>57711854043</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C335" s="3">
-        <v>4.0414696E7</v>
-      </c>
-    </row>
-    <row r="336" ht="14.25" customHeight="1">
+        <v>40414696</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
-        <v>3.76261819E8</v>
+        <v>376261819</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C336" s="3">
-        <v>2.6E7</v>
-      </c>
-    </row>
-    <row r="337" ht="14.25" customHeight="1">
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>3</v>
       </c>
@@ -4249,120 +4271,120 @@
         <v>57</v>
       </c>
       <c r="C337" s="3">
-        <v>4.6236053E7</v>
-      </c>
-    </row>
-    <row r="338" ht="14.25" customHeight="1">
+        <v>46236053</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
-        <v>3.7319041487E10</v>
+        <v>37319041487</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C338" s="3">
-        <v>3.6E7</v>
-      </c>
-    </row>
-    <row r="339" ht="14.25" customHeight="1">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
-        <v>3.2884257747E10</v>
+        <v>32884257747</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C339" s="3">
-        <v>3.8247882E7</v>
-      </c>
-    </row>
-    <row r="340" ht="14.25" customHeight="1">
+        <v>38247882</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
-        <v>5.8143723258E10</v>
+        <v>58143723258</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C340" s="3">
-        <v>4.3E7</v>
-      </c>
-    </row>
-    <row r="341" ht="14.25" customHeight="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
-        <v>1.3896054033E10</v>
+        <v>13896054033</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C341" s="3">
-        <v>1.1E7</v>
-      </c>
-    </row>
-    <row r="342" ht="14.25" customHeight="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
-        <v>9.702691011E9</v>
+        <v>9702691011</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C342" s="3">
-        <v>4.9E7</v>
-      </c>
-    </row>
-    <row r="343" ht="14.25" customHeight="1">
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
-        <v>4.7196608626E10</v>
+        <v>47196608626</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C343" s="3">
-        <v>2.2907132E7</v>
-      </c>
-    </row>
-    <row r="344" ht="14.25" customHeight="1">
+        <v>22907132</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
-        <v>6.0919883102E10</v>
+        <v>60919883102</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C344" s="3">
-        <v>1.4E7</v>
-      </c>
-    </row>
-    <row r="345" ht="14.25" customHeight="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
-        <v>7.3700868418E10</v>
+        <v>73700868418</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C345" s="3">
-        <v>4.2633681E7</v>
-      </c>
-    </row>
-    <row r="346" ht="14.25" customHeight="1">
+        <v>42633681</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
-        <v>9.292241303E10</v>
+        <v>92922413030</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C346" s="3">
-        <v>3.6E7</v>
-      </c>
-    </row>
-    <row r="347" ht="14.25" customHeight="1">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
-        <v>2.849136236E9</v>
+        <v>2849136236</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C347" s="3">
-        <v>4.4E7</v>
-      </c>
-    </row>
-    <row r="348" ht="14.25" customHeight="1">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>3</v>
       </c>
@@ -4370,10 +4392,10 @@
         <v>58</v>
       </c>
       <c r="C348" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="349" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>3</v>
       </c>
@@ -4381,87 +4403,87 @@
         <v>59</v>
       </c>
       <c r="C349" s="3">
-        <v>1.3E7</v>
-      </c>
-    </row>
-    <row r="350" ht="14.25" customHeight="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
-        <v>9.762578329E10</v>
+        <v>97625783290</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C350" s="3">
-        <v>2.3E7</v>
-      </c>
-    </row>
-    <row r="351" ht="14.25" customHeight="1">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
-        <v>7.2992784898E10</v>
+        <v>72992784898</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C351" s="3">
-        <v>4.2E7</v>
-      </c>
-    </row>
-    <row r="352" ht="14.25" customHeight="1">
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
-        <v>2.3994482434E10</v>
+        <v>23994482434</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C352" s="3">
-        <v>3.0E7</v>
-      </c>
-    </row>
-    <row r="353" ht="14.25" customHeight="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
-        <v>5.4188801555E10</v>
+        <v>54188801555</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C353" s="3">
-        <v>3.0E7</v>
-      </c>
-    </row>
-    <row r="354" ht="14.25" customHeight="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
-        <v>1.5530170168E10</v>
+        <v>15530170168</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C354" s="3">
-        <v>2.9E7</v>
-      </c>
-    </row>
-    <row r="355" ht="14.25" customHeight="1">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
-        <v>3.7147725157E10</v>
+        <v>37147725157</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C355" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="356" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
-        <v>9.5206570878E10</v>
+        <v>95206570878</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C356" s="3">
-        <v>4.4E7</v>
-      </c>
-    </row>
-    <row r="357" ht="14.25" customHeight="1">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>3</v>
       </c>
@@ -4469,10 +4491,10 @@
         <v>60</v>
       </c>
       <c r="C357" s="3">
-        <v>4.4E7</v>
-      </c>
-    </row>
-    <row r="358" ht="14.25" customHeight="1">
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>3</v>
       </c>
@@ -4480,76 +4502,76 @@
         <v>61</v>
       </c>
       <c r="C358" s="3">
-        <v>2.3E7</v>
-      </c>
-    </row>
-    <row r="359" ht="14.25" customHeight="1">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
-        <v>5.4317896464E10</v>
+        <v>54317896464</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C359" s="3">
-        <v>3.4494301E7</v>
-      </c>
-    </row>
-    <row r="360" ht="14.25" customHeight="1">
+        <v>34494301</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
-        <v>2.0181445112E10</v>
+        <v>20181445112</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C360" s="3">
-        <v>4.0E7</v>
-      </c>
-    </row>
-    <row r="361" ht="14.25" customHeight="1">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
-        <v>5.9688748039E10</v>
+        <v>59688748039</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C361" s="3">
-        <v>4.7E7</v>
-      </c>
-    </row>
-    <row r="362" ht="14.25" customHeight="1">
+        <v>47000000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
-        <v>9.2064689621E10</v>
+        <v>92064689621</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C362" s="3">
-        <v>1.9E7</v>
-      </c>
-    </row>
-    <row r="363" ht="14.25" customHeight="1">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
-        <v>9.1634525771E10</v>
+        <v>91634525771</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C363" s="3">
-        <v>4.6E7</v>
-      </c>
-    </row>
-    <row r="364" ht="14.25" customHeight="1">
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
-        <v>7.4207680173E10</v>
+        <v>74207680173</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C364" s="3">
-        <v>3.7460164E7</v>
-      </c>
-    </row>
-    <row r="365" ht="14.25" customHeight="1">
+        <v>37460164</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>3</v>
       </c>
@@ -4557,10 +4579,10 @@
         <v>62</v>
       </c>
       <c r="C365" s="3">
-        <v>1.9E7</v>
-      </c>
-    </row>
-    <row r="366" ht="14.25" customHeight="1">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
@@ -4568,274 +4590,274 @@
         <v>63</v>
       </c>
       <c r="C366" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="367" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
-        <v>6.2334734764E10</v>
+        <v>62334734764</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C367" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="368" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
-        <v>3.3125511569E10</v>
+        <v>33125511569</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C368" s="3">
-        <v>2.6028467E7</v>
-      </c>
-    </row>
-    <row r="369" ht="14.25" customHeight="1">
+        <v>26028467</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
-        <v>8.6872318293E10</v>
+        <v>86872318293</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C369" s="3">
-        <v>2.8611121E7</v>
-      </c>
-    </row>
-    <row r="370" ht="14.25" customHeight="1">
+        <v>28611121</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
-        <v>6.718445823E9</v>
+        <v>6718445823</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C370" s="3">
-        <v>2.4264859E7</v>
-      </c>
-    </row>
-    <row r="371" ht="14.25" customHeight="1">
+        <v>24264859</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
-        <v>1.1562855058E10</v>
+        <v>11562855058</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C371" s="3">
-        <v>1.3506628E7</v>
-      </c>
-    </row>
-    <row r="372" ht="14.25" customHeight="1">
+        <v>13506628</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
-        <v>5.9145600896E10</v>
+        <v>59145600896</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C372" s="3">
-        <v>1.5E7</v>
-      </c>
-    </row>
-    <row r="373" ht="14.25" customHeight="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
-        <v>3.5551651806E10</v>
+        <v>35551651806</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C373" s="3">
-        <v>3.8E7</v>
-      </c>
-    </row>
-    <row r="374" ht="14.25" customHeight="1">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
-        <v>8.6898510697E10</v>
+        <v>86898510697</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C374" s="3">
-        <v>3.4753061E7</v>
-      </c>
-    </row>
-    <row r="375" ht="14.25" customHeight="1">
+        <v>34753061</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
-        <v>6.9989958622E10</v>
+        <v>69989958622</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C375" s="3">
-        <v>1.1E7</v>
-      </c>
-    </row>
-    <row r="376" ht="14.25" customHeight="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
-        <v>5.8076768447E10</v>
+        <v>58076768447</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C376" s="3">
-        <v>1.8525228E7</v>
-      </c>
-    </row>
-    <row r="377" ht="14.25" customHeight="1">
+        <v>18525228</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
-        <v>7.435089921E10</v>
+        <v>74350899210</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C377" s="3">
-        <v>4.4781649E7</v>
-      </c>
-    </row>
-    <row r="378" ht="14.25" customHeight="1">
+        <v>44781649</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
-        <v>6.5010376599E10</v>
+        <v>65010376599</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C378" s="3">
-        <v>8745437.0</v>
-      </c>
-    </row>
-    <row r="379" ht="14.25" customHeight="1">
+        <v>8745437</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
-        <v>8.753423135E10</v>
+        <v>87534231350</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C379" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="380" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
-        <v>9.4618378954E10</v>
+        <v>94618378954</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C380" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="381" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
-        <v>2.8949262051E10</v>
+        <v>28949262051</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C381" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="382" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
-        <v>4.3071068081E10</v>
+        <v>43071068081</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C382" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="383" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
-        <v>8.0730712238E10</v>
+        <v>80730712238</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C383" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="384" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
-        <v>8.5191984978E10</v>
+        <v>85191984978</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C384" s="3">
-        <v>5.439277E7</v>
-      </c>
-    </row>
-    <row r="385" ht="14.25" customHeight="1">
+        <v>54392770</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
-        <v>9.7255582566E10</v>
+        <v>97255582566</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C385" s="3">
-        <v>2.132077E7</v>
-      </c>
-    </row>
-    <row r="386" ht="14.25" customHeight="1">
+        <v>21320770</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
-        <v>2.0423474987E10</v>
+        <v>20423474987</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C386" s="3">
-        <v>7245435.0</v>
-      </c>
-    </row>
-    <row r="387" ht="14.25" customHeight="1">
+        <v>7245435</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
-        <v>4.7405264774E10</v>
+        <v>47405264774</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C387" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="388" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
-        <v>8.3169776416E10</v>
+        <v>83169776416</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C388" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="389" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
-        <v>5.265584271E10</v>
+        <v>52655842710</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C389" s="3">
-        <v>4305573.0</v>
-      </c>
-    </row>
-    <row r="390" ht="14.25" customHeight="1">
+        <v>4305573</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
-        <v>9.23384046E10</v>
+        <v>92338404600</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C390" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="391" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>3</v>
       </c>
@@ -4843,43 +4865,43 @@
         <v>64</v>
       </c>
       <c r="C391" s="3">
-        <v>2.5E7</v>
-      </c>
-    </row>
-    <row r="392" ht="14.25" customHeight="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
-        <v>8.2830391623E10</v>
+        <v>82830391623</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C392" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="393" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
-        <v>5.3643011665E10</v>
+        <v>53643011665</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C393" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="394" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
-        <v>4.0203150574E10</v>
+        <v>40203150574</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C394" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="395" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>3</v>
       </c>
@@ -4887,197 +4909,197 @@
         <v>65</v>
       </c>
       <c r="C395" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="396" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
-        <v>3.3460339045E10</v>
+        <v>33460339045</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C396" s="3">
-        <v>4.0253703E7</v>
-      </c>
-    </row>
-    <row r="397" ht="14.25" customHeight="1">
+        <v>40253703</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
-        <v>1.1183419709E10</v>
+        <v>11183419709</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C397" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="398" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
-        <v>3.5325107269E10</v>
+        <v>35325107269</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C398" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="399" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
-        <v>6.311070277E9</v>
+        <v>6311070277</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C399" s="3">
-        <v>2.1413291E7</v>
-      </c>
-    </row>
-    <row r="400" ht="14.25" customHeight="1">
+        <v>21413291</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
-        <v>1.7462696206E10</v>
+        <v>17462696206</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C400" s="3">
-        <v>4.660535E7</v>
-      </c>
-    </row>
-    <row r="401" ht="14.25" customHeight="1">
+        <v>46605350</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
-        <v>7.5963991223E10</v>
+        <v>75963991223</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C401" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="402" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
-        <v>5.5900134206E10</v>
+        <v>55900134206</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C402" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="403" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
-        <v>4.9447930064E10</v>
+        <v>49447930064</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C403" s="3">
-        <v>1.8608736E7</v>
-      </c>
-    </row>
-    <row r="404" ht="14.25" customHeight="1">
+        <v>18608736</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
-        <v>1.7624262056E10</v>
+        <v>17624262056</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C404" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="405" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
-        <v>9.2398564641E10</v>
+        <v>92398564641</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C405" s="3">
-        <v>8749546.0</v>
-      </c>
-    </row>
-    <row r="406" ht="14.25" customHeight="1">
+        <v>8749546</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
-        <v>9.711503201E10</v>
+        <v>97115032010</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C406" s="3">
-        <v>9805953.0</v>
-      </c>
-    </row>
-    <row r="407" ht="14.25" customHeight="1">
+        <v>9805953</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
-        <v>8.7357237683E10</v>
+        <v>87357237683</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C407" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="408" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
-        <v>8.4191003479E10</v>
+        <v>84191003479</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C408" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="409" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
-        <v>9.3025257617E10</v>
+        <v>93025257617</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C409" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="410" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
-        <v>7.2031174196E10</v>
+        <v>72031174196</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C410" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="411" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
-        <v>4.3947458668E10</v>
+        <v>43947458668</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C411" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="412" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
-        <v>8.5355099548E10</v>
+        <v>85355099548</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C412" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="413" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>3</v>
       </c>
@@ -5085,10 +5107,10 @@
         <v>66</v>
       </c>
       <c r="C413" s="3">
-        <v>3.7131745E7</v>
-      </c>
-    </row>
-    <row r="414" ht="14.25" customHeight="1">
+        <v>37131745</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>3</v>
       </c>
@@ -5096,21 +5118,21 @@
         <v>67</v>
       </c>
       <c r="C414" s="3">
-        <v>3.3E7</v>
-      </c>
-    </row>
-    <row r="415" ht="14.25" customHeight="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
-        <v>6.7766654518E10</v>
+        <v>67766654518</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C415" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="416" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>3</v>
       </c>
@@ -5118,98 +5140,98 @@
         <v>68</v>
       </c>
       <c r="C416" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="417" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
-        <v>8.9777326537E10</v>
+        <v>89777326537</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C417" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="418" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
-        <v>7.7191282788E10</v>
+        <v>77191282788</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C418" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="419" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
-        <v>5.2986772524E10</v>
+        <v>52986772524</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C419" s="3">
-        <v>4530427.0</v>
-      </c>
-    </row>
-    <row r="420" ht="14.25" customHeight="1">
+        <v>4530427</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
-        <v>6.3876254399E10</v>
+        <v>63876254399</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C420" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="421" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
-        <v>6.6429731088E10</v>
+        <v>66429731088</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C421" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="422" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
-        <v>2.4614510277E10</v>
+        <v>24614510277</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C422" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="423" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
-        <v>6.4304601613E10</v>
+        <v>64304601613</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C423" s="3">
-        <v>4586666.0</v>
-      </c>
-    </row>
-    <row r="424" ht="14.25" customHeight="1">
+        <v>4586666</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
-        <v>9.8486995103E10</v>
+        <v>98486995103</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C424" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="425" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>3</v>
       </c>
@@ -5217,10 +5239,10 @@
         <v>69</v>
       </c>
       <c r="C425" s="3">
-        <v>4.7E7</v>
-      </c>
-    </row>
-    <row r="426" ht="14.25" customHeight="1">
+        <v>47000000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>3</v>
       </c>
@@ -5228,43 +5250,43 @@
         <v>70</v>
       </c>
       <c r="C426" s="3">
-        <v>1.0E7</v>
-      </c>
-    </row>
-    <row r="427" ht="14.25" customHeight="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
-        <v>5.2302381553E10</v>
+        <v>52302381553</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C427" s="3">
-        <v>7461605.0</v>
-      </c>
-    </row>
-    <row r="428" ht="14.25" customHeight="1">
+        <v>7461605</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
-        <v>6.3185915215E10</v>
+        <v>63185915215</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C428" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="429" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
-        <v>1.0590782118E10</v>
+        <v>10590782118</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C429" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="430" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>3</v>
       </c>
@@ -5272,32 +5294,32 @@
         <v>71</v>
       </c>
       <c r="C430" s="3">
-        <v>1.8451646E7</v>
-      </c>
-    </row>
-    <row r="431" ht="14.25" customHeight="1">
+        <v>18451646</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
-        <v>6.1181728029E10</v>
+        <v>61181728029</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C431" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="432" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
-        <v>4.9455126726E10</v>
+        <v>49455126726</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C432" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="433" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>3</v>
       </c>
@@ -5305,10 +5327,10 @@
         <v>72</v>
       </c>
       <c r="C433" s="3">
-        <v>3.0713732E7</v>
-      </c>
-    </row>
-    <row r="434" ht="14.25" customHeight="1">
+        <v>30713732</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>3</v>
       </c>
@@ -5316,65 +5338,65 @@
         <v>73</v>
       </c>
       <c r="C434" s="3">
-        <v>3.4E7</v>
-      </c>
-    </row>
-    <row r="435" ht="14.25" customHeight="1">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
-        <v>8.7597858279E10</v>
+        <v>87597858279</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C435" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="436" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
-        <v>1.2545037449E10</v>
+        <v>12545037449</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C436" s="3">
-        <v>7517511.0</v>
-      </c>
-    </row>
-    <row r="437" ht="14.25" customHeight="1">
+        <v>7517511</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
-        <v>9.9208515432E10</v>
+        <v>99208515432</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C437" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="438" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
-        <v>3.5479398333E10</v>
+        <v>35479398333</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C438" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="439" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
-        <v>2.7281824855E10</v>
+        <v>27281824855</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C439" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="440" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>3</v>
       </c>
@@ -5382,21 +5404,21 @@
         <v>74</v>
       </c>
       <c r="C440" s="3">
-        <v>2.1E7</v>
-      </c>
-    </row>
-    <row r="441" ht="14.25" customHeight="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
-        <v>6.2862409914E10</v>
+        <v>62862409914</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C441" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="442" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>3</v>
       </c>
@@ -5404,32 +5426,32 @@
         <v>75</v>
       </c>
       <c r="C442" s="3">
-        <v>3.0E7</v>
-      </c>
-    </row>
-    <row r="443" ht="14.25" customHeight="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
-        <v>8.8848841714E10</v>
+        <v>88848841714</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C443" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="444" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
-        <v>6.03824874E10</v>
+        <v>60382487400</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C444" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="445" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>3</v>
       </c>
@@ -5437,54 +5459,54 @@
         <v>76</v>
       </c>
       <c r="C445" s="3">
-        <v>2.3E7</v>
-      </c>
-    </row>
-    <row r="446" ht="14.25" customHeight="1">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
-        <v>2.5206121589E10</v>
+        <v>25206121589</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C446" s="3">
-        <v>4.4744785E7</v>
-      </c>
-    </row>
-    <row r="447" ht="14.25" customHeight="1">
+        <v>44744785</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
-        <v>1.3716091286E10</v>
+        <v>13716091286</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C447" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="448" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
-        <v>4.496367244E9</v>
+        <v>4496367244</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C448" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="449" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
-        <v>1.6432236485E10</v>
+        <v>16432236485</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C449" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="450" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>3</v>
       </c>
@@ -5492,241 +5514,241 @@
         <v>77</v>
       </c>
       <c r="C450" s="3">
-        <v>3.6E7</v>
-      </c>
-    </row>
-    <row r="451" ht="14.25" customHeight="1">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
-        <v>1.47284595E10</v>
+        <v>14728459500</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C451" s="3">
-        <v>4425124.0</v>
-      </c>
-    </row>
-    <row r="452" ht="14.25" customHeight="1">
+        <v>4425124</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
-        <v>5.9160772968E10</v>
+        <v>59160772968</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C452" s="3">
-        <v>4450313.0</v>
-      </c>
-    </row>
-    <row r="453" ht="14.25" customHeight="1">
+        <v>4450313</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
-        <v>7.7907260342E10</v>
+        <v>77907260342</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C453" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="454" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
-        <v>8.4164433227E10</v>
+        <v>84164433227</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C454" s="3">
-        <v>1.0215424E7</v>
-      </c>
-    </row>
-    <row r="455" ht="14.25" customHeight="1">
+        <v>10215424</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
-        <v>5.911871743E10</v>
+        <v>59118717430</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C455" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="456" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
-        <v>3.4645307091E10</v>
+        <v>34645307091</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C456" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="457" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
-        <v>6.5218704001E10</v>
+        <v>65218704001</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C457" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="458" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
-        <v>5.9574230491E10</v>
+        <v>59574230491</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C458" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="459" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
-        <v>6.361847333E10</v>
+        <v>63618473330</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C459" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="460" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
-        <v>4.2600081529E10</v>
+        <v>42600081529</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C460" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="461" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
-        <v>2.5123902955E10</v>
+        <v>25123902955</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C461" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="462" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
-        <v>4.8630039534E10</v>
+        <v>48630039534</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C462" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="463" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
-        <v>6.0199514695E10</v>
+        <v>60199514695</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C463" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="464" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
-        <v>5.1677747474E10</v>
+        <v>51677747474</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C464" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="465" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
-        <v>7.3153698943E10</v>
+        <v>73153698943</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C465" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="466" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
-        <v>7.8968705789E10</v>
+        <v>78968705789</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C466" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="467" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
-        <v>4.9433795746E10</v>
+        <v>49433795746</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C467" s="3">
-        <v>1.8558165E7</v>
-      </c>
-    </row>
-    <row r="468" ht="14.25" customHeight="1">
+        <v>18558165</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
-        <v>3.1253892498E10</v>
+        <v>31253892498</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C468" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="469" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
-        <v>8.367900947E10</v>
+        <v>83679009470</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C469" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="470" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
-        <v>2.0927489644E10</v>
+        <v>20927489644</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C470" s="3">
-        <v>1.0277844E7</v>
-      </c>
-    </row>
-    <row r="471" ht="14.25" customHeight="1">
+        <v>10277844</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
-        <v>6.8383508915E10</v>
+        <v>68383508915</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C471" s="3">
-        <v>1.6422417E7</v>
-      </c>
-    </row>
-    <row r="472" ht="14.25" customHeight="1">
+        <v>16422417</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>3</v>
       </c>
@@ -5734,153 +5756,153 @@
         <v>78</v>
       </c>
       <c r="C472" s="3">
-        <v>1.8E7</v>
-      </c>
-    </row>
-    <row r="473" ht="14.25" customHeight="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
-        <v>3.6267677743E10</v>
+        <v>36267677743</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C473" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="474" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
-        <v>7.341462661E10</v>
+        <v>73414626610</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C474" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="475" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
-        <v>6.3307729346E10</v>
+        <v>63307729346</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C475" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="476" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
-        <v>9.7702999E8</v>
+        <v>977029990</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C476" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="477" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
-        <v>6.867564359E9</v>
+        <v>6867564359</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C477" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="478" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
-        <v>8.436920901E9</v>
+        <v>8436920901</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C478" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="479" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
-        <v>2.6041752084E10</v>
+        <v>26041752084</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C479" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="480" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
-        <v>1.4583409664E10</v>
+        <v>14583409664</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C480" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="481" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
-        <v>5.3317265633E10</v>
+        <v>53317265633</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C481" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="482" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
-        <v>9.8127508749E10</v>
+        <v>98127508749</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C482" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="483" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
-        <v>3.593011131E9</v>
+        <v>3593011131</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C483" s="3">
-        <v>1.2E7</v>
-      </c>
-    </row>
-    <row r="484" ht="14.25" customHeight="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
-        <v>1.1471730363E10</v>
+        <v>11471730363</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C484" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="485" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
-        <v>3.1123462718E10</v>
+        <v>31123462718</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C485" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="486" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>3</v>
       </c>
@@ -5888,697 +5910,695 @@
         <v>79</v>
       </c>
       <c r="C486" s="3">
-        <v>3.9E7</v>
-      </c>
-    </row>
-    <row r="487" ht="14.25" customHeight="1">
+        <v>39000000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
-        <v>5.1832115487E10</v>
+        <v>51832115487</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C487" s="3">
-        <v>5000000.0</v>
-      </c>
-    </row>
-    <row r="488" ht="14.25" customHeight="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
-        <v>6.9469762327E10</v>
+        <v>69469762327</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C488" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="489" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
-        <v>4.60015586E8</v>
+        <v>460015586</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C489" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="490" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
-        <v>2.5698760327E10</v>
+        <v>25698760327</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C490" s="3">
-        <v>1.6370166E7</v>
-      </c>
-    </row>
-    <row r="491" ht="14.25" customHeight="1">
+        <v>16370166</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
-        <v>4.4381149209E10</v>
+        <v>44381149209</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C491" s="3">
-        <v>4.7367611E7</v>
-      </c>
-    </row>
-    <row r="492" ht="14.25" customHeight="1">
+        <v>47367611</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
-        <v>3.233117117E10</v>
+        <v>32331171170</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C492" s="3">
-        <v>1.2762826E7</v>
-      </c>
-    </row>
-    <row r="493" ht="14.25" customHeight="1">
+        <v>12762826</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
-        <v>7.8557370885E10</v>
+        <v>78557370885</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C493" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="494" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
-        <v>8.9192829725E10</v>
+        <v>89192829725</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C494" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="495" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
-        <v>6.261205893E10</v>
+        <v>62612058930</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C495" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="496" ht="14.25" customHeight="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
-        <v>8.0790591258E10</v>
+        <v>80790591258</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C496" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="497" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
-        <v>3.1550319837E10</v>
+        <v>31550319837</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C497" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="498" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
-        <v>8.4111809361E10</v>
+        <v>84111809361</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C498" s="3">
-        <v>4388990.0</v>
-      </c>
-    </row>
-    <row r="499" ht="14.25" customHeight="1">
+        <v>4388990</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
-        <v>8.0136980432E10</v>
+        <v>80136980432</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C499" s="3">
-        <v>5.0E7</v>
-      </c>
-    </row>
-    <row r="500" ht="14.25" customHeight="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
-        <v>2.6580976163E10</v>
+        <v>26580976163</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C500" s="3">
-        <v>2.0E7</v>
-      </c>
-    </row>
-    <row r="501" ht="14.25" customHeight="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
-        <v>5.262290607E10</v>
+        <v>52622906070</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C501" s="3">
-        <v>9869757.0</v>
-      </c>
-    </row>
-    <row r="502" ht="14.25" customHeight="1">
+        <v>9869757</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
-        <v>7.3576233421E10</v>
+        <v>73576233421</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C502" s="3">
-        <v>8641571.0</v>
-      </c>
-    </row>
-    <row r="503" ht="14.25" customHeight="1">
+        <v>8641571</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
-        <v>2.8836667762E10</v>
+        <v>28836667762</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C503" s="3">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>